--- a/biology/Botanique/Tillandsia_inochroma/Tillandsia_inochroma.xlsx
+++ b/biology/Botanique/Tillandsia_inochroma/Tillandsia_inochroma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia inochroma est une espèce de plante de la famille des Bromeliaceae, endémique du Pérou.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Caraguata violacea André[2] ;
-Tillandsia fuscoguttata Mez[2] ;
-Tillandsia wangerinii Mez[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Caraguata violacea André ;
+Tillandsia fuscoguttata Mez ;
+Tillandsia wangerinii Mez.</t>
         </is>
       </c>
     </row>
@@ -545,13 +559,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tillandsia wangerinii
-Tillandsia wangerinii Mez, in Repert. Spec. Nov. Regni Veg. 3: 40 (1906) (pro « Wangerini »)
+          <t>Tillandsia wangerinii</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia wangerinii Mez, in Repert. Spec. Nov. Regni Veg. 3: 40 (1906) (pro « Wangerini »)
 Le terme de wangerinii est une probable dédicace au botaniste Walther Wangerin, bien que le protologue ne le précise pas explicitement.
-Diagnose originale[3]
+Diagnose originale
 « Statura conspicua; foliis dense utriculatim rosulatis, glabriusculis; scapo elongato, folia multo superante; inflorescentia multiflora, densissime breviterque thyrsoidea, 2-pinnatim panniculata[sic]; spicis subpinnatis, +/- 6-floris, inferioribus mediisque quam bracteae primariae latissimae brevioribus superioribus bracteas superantibus; bracteis florigeris quam sepala brevioribus; floribus suberectis; sepalis subaequaliter breviter inter sese connatis; petalis genitalia optime superantibus ».
 Type
-leg. Weberbauer, n° 2920, 1903-04-19 ; « Peruvia, prov. Huari, dept. Ancachs, inter Pichin et Conin, alt. 3500-3600 m » ; (herbier de dépôt non mentionné, probablement B) [3]</t>
+leg. Weberbauer, n° 2920, 1903-04-19 ; « Peruvia, prov. Huari, dept. Ancachs, inter Pichin et Conin, alt. 3500-3600 m » ; (herbier de dépôt non mentionné, probablement B) </t>
         </is>
       </c>
     </row>
@@ -579,9 +598,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique de la région d'Ancash au Pérou[3] où elle se rencontre entre 3 500 et 3 600 mètres d'altitude[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de la région d'Ancash au Pérou où elle se rencontre entre 3 500 et 3 600 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -610,9 +631,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia inochroma est une plante herbacée en rosette, épiphyte[3] ou saxicole[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia inochroma est une plante herbacée en rosette, épiphyte ou saxicole.
 </t>
         </is>
       </c>
@@ -641,7 +664,9 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante mal connue, Tillandsia inochroma ne semble pas avoir été introduite en culture.
 </t>
